--- a/InputData/ScenarioDesign.xlsx
+++ b/InputData/ScenarioDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F15965-958D-45E6-9553-03CE47A1FFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3CB9DA-1486-4B1F-BC4B-01A835A26F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
   <si>
     <t>Base</t>
   </si>
@@ -83,32 +83,65 @@
     <t>CCS</t>
   </si>
   <si>
-    <t>Repurposing_1_Reserve</t>
-  </si>
-  <si>
     <t>Repurposing_1</t>
   </si>
   <si>
-    <t>ElectrifyPurchaseWind</t>
-  </si>
-  <si>
-    <t>ElectrifyInvestWind</t>
-  </si>
-  <si>
-    <t>ElectrifyInvestWindNoReserves</t>
-  </si>
-  <si>
-    <t>ElectrifyInvestWindReserves</t>
+    <t>ElectrifyInvestWindFarmNoReserves</t>
+  </si>
+  <si>
+    <t>ElectrifyInvestWindFarmReserves</t>
+  </si>
+  <si>
+    <t>ElectrifyCCSWindNoReserves</t>
+  </si>
+  <si>
+    <t>ElectrifyCCSWindReserves</t>
+  </si>
+  <si>
+    <t>ElectrifyInvestWindFarm</t>
+  </si>
+  <si>
+    <t>ElectrifyCCSWind</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_1</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_2</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_3</t>
+  </si>
+  <si>
+    <t>Repurposing_2</t>
+  </si>
+  <si>
+    <t>Repurposing_3</t>
+  </si>
+  <si>
+    <t>ElectrifyPurchase</t>
+  </si>
+  <si>
+    <t>ElectrifyPurchaseReserves</t>
+  </si>
+  <si>
+    <t>ElectrifyPurchaseNoReserves</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -438,21 +471,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9C6D9-D636-4A07-B75F-D8B2D85E34A0}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G17" sqref="G17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.7109375" customWidth="1"/>
+    <col min="7" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -460,18 +494,30 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -487,8 +533,20 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -498,19 +556,31 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -526,8 +596,20 @@
       <c r="E6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -537,8 +619,20 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -548,8 +642,20 @@
       <c r="E8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -559,8 +665,20 @@
       <c r="E9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -570,77 +688,223 @@
       <c r="E10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>8</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>8</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>12</v>
       </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/InputData/ScenarioDesign.xlsx
+++ b/InputData/ScenarioDesign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3CB9DA-1486-4B1F-BC4B-01A835A26F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B6A7CA-C076-46CE-B16F-24A0F1BE37F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
   <si>
     <t>Base</t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t>ElectrifyPurchaseNoReserves</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_4</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_5</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_6</t>
+  </si>
+  <si>
+    <t>Repurposing_4</t>
+  </si>
+  <si>
+    <t>Repurposing_5</t>
+  </si>
+  <si>
+    <t>Repurposing_6</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_4</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_5</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_6</t>
   </si>
 </sst>
 </file>
@@ -471,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9C6D9-D636-4A07-B75F-D8B2D85E34A0}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:I17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,10 +510,12 @@
     <col min="2" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="29.7109375" customWidth="1"/>
-    <col min="7" max="9" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="29.7109375" customWidth="1"/>
+    <col min="10" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -503,21 +532,39 @@
         <v>27</v>
       </c>
       <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -545,8 +592,26 @@
       <c r="I3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -562,25 +627,43 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>2</v>
       </c>
-      <c r="H5" t="s">
+      <c r="K5" t="s">
         <v>2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -608,8 +691,26 @@
       <c r="I6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -631,8 +732,26 @@
       <c r="I7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -654,8 +773,26 @@
       <c r="I8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -677,8 +814,26 @@
       <c r="I9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -700,8 +855,26 @@
       <c r="I10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+      <c r="O10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -723,8 +896,26 @@
       <c r="I11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -746,8 +937,26 @@
       <c r="I12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -769,8 +978,26 @@
       <c r="I13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -783,22 +1010,40 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="G15" t="s">
+      <c r="J15" t="s">
         <v>18</v>
       </c>
-      <c r="H15" t="s">
+      <c r="K15" t="s">
         <v>18</v>
       </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -811,22 +1056,40 @@
       <c r="F16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" t="s">
+      <c r="K17" t="s">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
+      <c r="L17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="N17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -839,32 +1102,50 @@
       <c r="F18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
+      <c r="K19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
+      <c r="L19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -877,30 +1158,69 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c r="I24" t="s">
+      <c r="L24" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" t="str">
+        <f>A25</f>
+        <v>TSdevelopmentCarbonPrice_4</v>
+      </c>
+      <c r="M25" t="str">
+        <f>A25</f>
+        <v>TSdevelopmentCarbonPrice_4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="H26" t="str">
+        <f>A26</f>
+        <v>TSdevelopmentCarbonPrice_5</v>
+      </c>
+      <c r="N26" t="str">
+        <f>A26</f>
+        <v>TSdevelopmentCarbonPrice_5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" t="str">
+        <f>A27</f>
+        <v>TSdevelopmentCarbonPrice_6</v>
+      </c>
+      <c r="O27" t="str">
+        <f>A27</f>
+        <v>TSdevelopmentCarbonPrice_6</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/ScenarioDesign.xlsx
+++ b/InputData/ScenarioDesign.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PhD project\Products\Models\OffPlatfEner\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B6A7CA-C076-46CE-B16F-24A0F1BE37F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCA7F4E-F8A2-4E74-BDA0-C7A100B51148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="scenarios" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="46">
   <si>
     <t>Base</t>
   </si>
@@ -153,6 +153,24 @@
   </si>
   <si>
     <t>Repurposing_Reserve_6</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_7</t>
+  </si>
+  <si>
+    <t>TSdevelopmentCarbonPrice_8</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_7</t>
+  </si>
+  <si>
+    <t>Repurposing_Reserve_8</t>
+  </si>
+  <si>
+    <t>Repurposing_7</t>
+  </si>
+  <si>
+    <t>Repurposing_8</t>
   </si>
 </sst>
 </file>
@@ -498,24 +516,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9C6D9-D636-4A07-B75F-D8B2D85E34A0}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="29.7109375" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="29.7109375" customWidth="1"/>
-    <col min="10" max="15" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="29.7109375" customWidth="1"/>
+    <col min="12" max="17" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="31.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -541,30 +560,42 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>25</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="R1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -610,8 +641,20 @@
       <c r="O3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -636,20 +679,20 @@
       <c r="I4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>2</v>
-      </c>
       <c r="L5" t="s">
         <v>2</v>
       </c>
@@ -662,8 +705,20 @@
       <c r="O5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -709,8 +764,20 @@
       <c r="O6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -750,8 +817,20 @@
       <c r="O7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -791,8 +870,20 @@
       <c r="O8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -832,8 +923,20 @@
       <c r="O9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R9" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -873,8 +976,20 @@
       <c r="O10" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -914,8 +1029,20 @@
       <c r="O11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>21</v>
+      </c>
+      <c r="R11" t="s">
+        <v>21</v>
+      </c>
+      <c r="S11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -955,8 +1082,20 @@
       <c r="O12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>28</v>
+      </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
+      <c r="S12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -996,8 +1135,20 @@
       <c r="O13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>22</v>
+      </c>
+      <c r="R13" t="s">
+        <v>22</v>
+      </c>
+      <c r="S13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1019,17 +1170,17 @@
       <c r="I14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
       <c r="L15" t="s">
         <v>18</v>
       </c>
@@ -1042,8 +1193,20 @@
       <c r="O15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1065,17 +1228,17 @@
       <c r="I16" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+      <c r="K16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
       <c r="L17" t="s">
         <v>29</v>
       </c>
@@ -1088,8 +1251,20 @@
       <c r="O17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>29</v>
+      </c>
+      <c r="R17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1111,17 +1286,17 @@
       <c r="I18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="J19" t="s">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s">
-        <v>20</v>
-      </c>
       <c r="L19" t="s">
         <v>20</v>
       </c>
@@ -1134,18 +1309,30 @@
       <c r="O19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>20</v>
+      </c>
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1158,33 +1345,33 @@
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="J22" t="s">
+      <c r="L22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
         <v>11</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1192,12 +1379,12 @@
         <f>A25</f>
         <v>TSdevelopmentCarbonPrice_4</v>
       </c>
-      <c r="M25" t="str">
+      <c r="O25" t="str">
         <f>A25</f>
         <v>TSdevelopmentCarbonPrice_4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>32</v>
       </c>
@@ -1205,12 +1392,12 @@
         <f>A26</f>
         <v>TSdevelopmentCarbonPrice_5</v>
       </c>
-      <c r="N26" t="str">
+      <c r="P26" t="str">
         <f>A26</f>
         <v>TSdevelopmentCarbonPrice_5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1218,9 +1405,35 @@
         <f>A27</f>
         <v>TSdevelopmentCarbonPrice_6</v>
       </c>
-      <c r="O27" t="str">
+      <c r="Q27" t="str">
         <f>A27</f>
         <v>TSdevelopmentCarbonPrice_6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="J28" t="str">
+        <f>A28</f>
+        <v>TSdevelopmentCarbonPrice_7</v>
+      </c>
+      <c r="R28" t="str">
+        <f>A28</f>
+        <v>TSdevelopmentCarbonPrice_7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" t="str">
+        <f>A29</f>
+        <v>TSdevelopmentCarbonPrice_8</v>
+      </c>
+      <c r="S29" t="str">
+        <f>A29</f>
+        <v>TSdevelopmentCarbonPrice_8</v>
       </c>
     </row>
   </sheetData>
